--- a/Plug5_data.xlsx
+++ b/Plug5_data.xlsx
@@ -3392,13 +3392,13 @@
                   <c:v>0.16</c:v>
                 </c:pt>
                 <c:pt idx="354">
-                  <c:v>0</c:v>
+                  <c:v>0.13</c:v>
                 </c:pt>
                 <c:pt idx="355">
-                  <c:v>0</c:v>
+                  <c:v>0.12</c:v>
                 </c:pt>
                 <c:pt idx="356">
-                  <c:v>0</c:v>
+                  <c:v>0.19</c:v>
                 </c:pt>
                 <c:pt idx="357">
                   <c:v>0</c:v>
@@ -7722,10 +7722,10 @@
         <v>357</v>
       </c>
       <c r="B356">
-        <v>0</v>
+        <v>0.44</v>
       </c>
       <c r="C356">
-        <v>0</v>
+        <v>0.13</v>
       </c>
     </row>
     <row r="357" spans="1:3">
@@ -7733,10 +7733,10 @@
         <v>358</v>
       </c>
       <c r="B357">
-        <v>0</v>
+        <v>0.4</v>
       </c>
       <c r="C357">
-        <v>0</v>
+        <v>0.12</v>
       </c>
     </row>
     <row r="358" spans="1:3">
@@ -7744,10 +7744,10 @@
         <v>359</v>
       </c>
       <c r="B358">
-        <v>0</v>
+        <v>0.65</v>
       </c>
       <c r="C358">
-        <v>0</v>
+        <v>0.19</v>
       </c>
     </row>
     <row r="359" spans="1:3">
